--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tff3</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.533457116102288</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H2">
-        <v>0.533457116102288</v>
+        <v>1.344643</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.5233452431083</v>
+        <v>21.90542466666666</v>
       </c>
       <c r="N2">
-        <v>21.5233452431083</v>
+        <v>65.716274</v>
       </c>
       <c r="O2">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="P2">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="Q2">
-        <v>11.48178168226245</v>
+        <v>9.818325313353554</v>
       </c>
       <c r="R2">
-        <v>11.48178168226245</v>
+        <v>88.364927820182</v>
       </c>
       <c r="S2">
-        <v>0.4418287760039803</v>
+        <v>0.1306119970908974</v>
       </c>
       <c r="T2">
-        <v>0.4418287760039803</v>
+        <v>0.1306119970908974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.533457116102288</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H3">
-        <v>0.533457116102288</v>
+        <v>1.344643</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1571600525939</v>
+        <v>23.19964933333333</v>
       </c>
       <c r="N3">
-        <v>20.1571600525939</v>
+        <v>69.59894799999999</v>
       </c>
       <c r="O3">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="P3">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="Q3">
-        <v>10.75298047046898</v>
+        <v>10.39841535950711</v>
       </c>
       <c r="R3">
-        <v>10.75298047046898</v>
+        <v>93.58573823556399</v>
       </c>
       <c r="S3">
-        <v>0.4137838822524841</v>
+        <v>0.1383288649886863</v>
       </c>
       <c r="T3">
-        <v>0.4137838822524841</v>
+        <v>0.1383288649886863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4482143333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.344643</v>
+      </c>
+      <c r="I4">
+        <v>0.3182853663951962</v>
+      </c>
+      <c r="J4">
+        <v>0.3182853663951962</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>8.275750666666667</v>
+      </c>
+      <c r="N4">
+        <v>24.827252</v>
+      </c>
+      <c r="O4">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="P4">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="Q4">
+        <v>3.709310067892889</v>
+      </c>
+      <c r="R4">
+        <v>33.38379061103601</v>
+      </c>
+      <c r="S4">
+        <v>0.04934450431561253</v>
+      </c>
+      <c r="T4">
+        <v>0.04934450431561254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.229799</v>
+      </c>
+      <c r="I5">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J5">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>21.90542466666666</v>
+      </c>
+      <c r="N5">
+        <v>65.716274</v>
+      </c>
+      <c r="O5">
+        <v>0.4103613011498748</v>
+      </c>
+      <c r="P5">
+        <v>0.4103613011498748</v>
+      </c>
+      <c r="Q5">
+        <v>16.28156467210288</v>
+      </c>
+      <c r="R5">
+        <v>146.534082048926</v>
+      </c>
+      <c r="S5">
+        <v>0.2165916905091432</v>
+      </c>
+      <c r="T5">
+        <v>0.2165916905091432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.229799</v>
+      </c>
+      <c r="I6">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J6">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>23.19964933333333</v>
+      </c>
+      <c r="N6">
+        <v>69.59894799999999</v>
+      </c>
+      <c r="O6">
+        <v>0.4346064242769223</v>
+      </c>
+      <c r="P6">
+        <v>0.4346064242769223</v>
+      </c>
+      <c r="Q6">
+        <v>17.24351829460577</v>
+      </c>
+      <c r="R6">
+        <v>155.191664651452</v>
+      </c>
+      <c r="S6">
+        <v>0.2293884434923676</v>
+      </c>
+      <c r="T6">
+        <v>0.2293884434923677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.229799</v>
+      </c>
+      <c r="I7">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J7">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.275750666666667</v>
+      </c>
+      <c r="N7">
+        <v>24.827252</v>
+      </c>
+      <c r="O7">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="P7">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="Q7">
+        <v>6.151086853594222</v>
+      </c>
+      <c r="R7">
+        <v>55.359781682348</v>
+      </c>
+      <c r="S7">
+        <v>0.08182716630246727</v>
+      </c>
+      <c r="T7">
+        <v>0.08182716630246728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.533457116102288</v>
-      </c>
-      <c r="H4">
-        <v>0.533457116102288</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.03371707290695</v>
-      </c>
-      <c r="N4">
-        <v>7.03371707290695</v>
-      </c>
-      <c r="O4">
-        <v>0.1443873417435355</v>
-      </c>
-      <c r="P4">
-        <v>0.1443873417435355</v>
-      </c>
-      <c r="Q4">
-        <v>3.752186425192368</v>
-      </c>
-      <c r="R4">
-        <v>3.752186425192368</v>
-      </c>
-      <c r="S4">
-        <v>0.1443873417435355</v>
-      </c>
-      <c r="T4">
-        <v>0.1443873417435355</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.650204</v>
+      </c>
+      <c r="I8">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J8">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>21.90542466666666</v>
+      </c>
+      <c r="N8">
+        <v>65.716274</v>
+      </c>
+      <c r="O8">
+        <v>0.4103613011498748</v>
+      </c>
+      <c r="P8">
+        <v>0.4103613011498748</v>
+      </c>
+      <c r="Q8">
+        <v>4.747664913321778</v>
+      </c>
+      <c r="R8">
+        <v>42.728984219896</v>
+      </c>
+      <c r="S8">
+        <v>0.06315761354983429</v>
+      </c>
+      <c r="T8">
+        <v>0.06315761354983429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.650204</v>
+      </c>
+      <c r="I9">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J9">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.19964933333333</v>
+      </c>
+      <c r="N9">
+        <v>69.59894799999999</v>
+      </c>
+      <c r="O9">
+        <v>0.4346064242769223</v>
+      </c>
+      <c r="P9">
+        <v>0.4346064242769223</v>
+      </c>
+      <c r="Q9">
+        <v>5.028168265043554</v>
+      </c>
+      <c r="R9">
+        <v>45.25351438539199</v>
+      </c>
+      <c r="S9">
+        <v>0.06688911579586834</v>
+      </c>
+      <c r="T9">
+        <v>0.06688911579586834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.650204</v>
+      </c>
+      <c r="I10">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J10">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.275750666666667</v>
+      </c>
+      <c r="N10">
+        <v>24.827252</v>
+      </c>
+      <c r="O10">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="P10">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="Q10">
+        <v>1.793642062156444</v>
+      </c>
+      <c r="R10">
+        <v>16.142778559408</v>
+      </c>
+      <c r="S10">
+        <v>0.02386060395512305</v>
+      </c>
+      <c r="T10">
+        <v>0.02386060395512305</v>
       </c>
     </row>
   </sheetData>
